--- a/estados y funciones.xlsx
+++ b/estados y funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosVSC\compC\compilador2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AE1AE7-7F2E-4FEC-9F32-80F0FFAC873E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED006A-2301-4899-A5D1-50CF06ED8154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5ED76320-F0B9-4B22-8176-03AB80A47559}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>tabla de estados</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>!</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -508,20 +511,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC0FD53-9A06-46A9-9497-8DB3FB2B57A4}">
-  <dimension ref="B2:Z20"/>
+  <dimension ref="B2:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -594,96 +597,1365 @@
       <c r="Z3" t="s">
         <v>41</v>
       </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>-1</v>
+      </c>
       <c r="U4">
         <v>12</v>
       </c>
+      <c r="V4">
+        <v>14</v>
+      </c>
+      <c r="W4">
+        <v>15</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>16</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <v>-1</v>
+      </c>
+      <c r="V8">
+        <v>-1</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>-1</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>-1</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
+        <v>-1</v>
+      </c>
+      <c r="AA11">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>10</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>-1</v>
+      </c>
+      <c r="S16">
+        <v>-1</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
       <c r="U16">
         <v>13</v>
       </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>-1</v>
+      </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
+      <c r="U17">
+        <v>-1</v>
+      </c>
+      <c r="V17">
+        <v>-1</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+      <c r="P18">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>-1</v>
+      </c>
+      <c r="T18">
+        <v>-1</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>-1</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>-1</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+      <c r="N19">
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
+        <v>-1</v>
+      </c>
+      <c r="V19">
+        <v>-1</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <v>-1</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>-1</v>
+      </c>
+      <c r="S20">
+        <v>-1</v>
+      </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
+        <v>-1</v>
+      </c>
+      <c r="V20">
+        <v>-1</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/estados y funciones.xlsx
+++ b/estados y funciones.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosVSC\compC\compilador2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ED006A-2301-4899-A5D1-50CF06ED8154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5ED76320-F0B9-4B22-8176-03AB80A47559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -159,8 +153,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +303,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -503,28 +497,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC0FD53-9A06-46A9-9497-8DB3FB2B57A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27">
       <c r="C3" t="s">
         <v>18</v>
       </c>
@@ -601,7 +595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -681,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -761,7 +755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -841,7 +835,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -921,7 +915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1379,6 +1373,9 @@
       <c r="T13">
         <v>10</v>
       </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
       <c r="V13">
         <v>-1</v>
       </c>
@@ -1398,7 +1395,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1795,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1878,7 +1875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27">
       <c r="B20" t="s">
         <v>17</v>
       </c>

--- a/estados y funciones.xlsx
+++ b/estados y funciones.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosVSC\compilador2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D2CA0D-1641-49E9-9DCA-9CD9661804D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1905" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1905" windowWidth="15375" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="53">
   <si>
     <t>tabla de estados</t>
   </si>
@@ -181,13 +175,16 @@
   </si>
   <si>
     <t>{</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +198,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -218,12 +230,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,309 +643,2201 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:25" ht="18.75">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="2:25" ht="18.75">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:25" ht="18.75">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>8</v>
       </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>13</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>15</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="5">
         <v>17</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>18</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>19</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="5">
         <v>20</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="5">
         <v>21</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="5">
         <v>22</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="5">
         <v>23</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="5">
         <v>24</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="5">
         <v>25</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="5">
         <v>26</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:25" ht="18.75">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="18.75">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="18.75">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="18.75">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>4</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>4</v>
+      </c>
+      <c r="R8" s="5">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5">
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>4</v>
+      </c>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5">
+        <v>4</v>
+      </c>
+      <c r="X8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="18.75">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="18.75">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="18.75">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="18.75">
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="5">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="18.75">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9</v>
+      </c>
+      <c r="H13" s="5">
+        <v>9</v>
+      </c>
+      <c r="I13" s="5">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5">
+        <v>9</v>
+      </c>
+      <c r="N13" s="5">
+        <v>9</v>
+      </c>
+      <c r="O13" s="5">
+        <v>9</v>
+      </c>
+      <c r="P13" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>9</v>
+      </c>
+      <c r="R13" s="5">
+        <v>9</v>
+      </c>
+      <c r="S13" s="5">
+        <v>9</v>
+      </c>
+      <c r="T13" s="5">
+        <v>9</v>
+      </c>
+      <c r="U13" s="5">
+        <v>9</v>
+      </c>
+      <c r="V13" s="5">
+        <v>9</v>
+      </c>
+      <c r="W13" s="5">
+        <v>9</v>
+      </c>
+      <c r="X13" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="18.75">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5">
+        <v>9</v>
+      </c>
+      <c r="I14" s="5">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>9</v>
+      </c>
+      <c r="L14" s="5">
+        <v>9</v>
+      </c>
+      <c r="M14" s="5">
+        <v>9</v>
+      </c>
+      <c r="N14" s="5">
+        <v>9</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9</v>
+      </c>
+      <c r="P14" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>9</v>
+      </c>
+      <c r="R14" s="5">
+        <v>9</v>
+      </c>
+      <c r="S14" s="5">
+        <v>9</v>
+      </c>
+      <c r="T14" s="5">
+        <v>9</v>
+      </c>
+      <c r="U14" s="5">
+        <v>9</v>
+      </c>
+      <c r="V14" s="5">
+        <v>9</v>
+      </c>
+      <c r="W14" s="5">
+        <v>9</v>
+      </c>
+      <c r="X14" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="18.75">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>12</v>
+      </c>
+      <c r="M15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="18.75">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="18.75">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>14</v>
+      </c>
+      <c r="N17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="18.75">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="18.75">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>16</v>
+      </c>
+      <c r="O19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="18.75">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="18.75">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="18.75">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="18.75">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="18.75">
+      <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="18.75">
+      <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="18.75">
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="18.75">
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="18.75">
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="18.75">
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y29" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="18.75">
+      <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="18.75">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estados y funciones.xlsx
+++ b/estados y funciones.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosVSC\compilador2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A72DC1-9BEB-4C7B-90A1-D10203311595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1905" windowWidth="15375" windowHeight="8325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -345,8 +351,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,27 +866,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T75" sqref="T75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:27" ht="19.5" thickBot="1">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -911,7 +917,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1">
+    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -988,7 +994,7 @@
       </c>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="19.5" thickBot="1">
+    <row r="4" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1067,7 +1073,7 @@
       </c>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="19.5" thickBot="1">
+    <row r="5" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -1078,8 +1084,8 @@
       <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>50</v>
+      <c r="E5" s="7">
+        <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>50</v>
@@ -1146,7 +1152,7 @@
       </c>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="19.5" thickBot="1">
+    <row r="6" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -1225,7 +1231,7 @@
       </c>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="19.5" thickBot="1">
+    <row r="7" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -1304,7 +1310,7 @@
       </c>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="19.5" thickBot="1">
+    <row r="8" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -1383,7 +1389,7 @@
       </c>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="19.5" thickBot="1">
+    <row r="9" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1462,7 +1468,7 @@
       </c>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="19.5" thickBot="1">
+    <row r="10" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1541,7 +1547,7 @@
       </c>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="19.5" thickBot="1">
+    <row r="11" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -1620,7 +1626,7 @@
       </c>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="19.5" thickBot="1">
+    <row r="12" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -1699,7 +1705,7 @@
       </c>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="19.5" thickBot="1">
+    <row r="13" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="19.5" thickBot="1">
+    <row r="14" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1790,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F14" s="7">
         <v>9</v>
@@ -1857,7 +1863,7 @@
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="19.5" thickBot="1">
+    <row r="15" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>12</v>
@@ -1936,7 +1942,7 @@
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="19.5" thickBot="1">
+    <row r="16" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -2015,7 +2021,7 @@
       </c>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="19.5" thickBot="1">
+    <row r="17" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>14</v>
@@ -2094,7 +2100,7 @@
       </c>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="19.5" thickBot="1">
+    <row r="18" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>15</v>
@@ -2173,7 +2179,7 @@
       </c>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="19.5" thickBot="1">
+    <row r="19" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>16</v>
@@ -2252,7 +2258,7 @@
       </c>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="19.5" thickBot="1">
+    <row r="20" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>17</v>
@@ -2331,7 +2337,7 @@
       </c>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="19.5" thickBot="1">
+    <row r="21" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>38</v>
@@ -2339,8 +2345,8 @@
       <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7">
-        <v>-1</v>
+      <c r="D21" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>50</v>
@@ -2410,7 +2416,7 @@
       </c>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="19.5" thickBot="1">
+    <row r="22" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>39</v>
@@ -2489,7 +2495,7 @@
       </c>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="19.5" thickBot="1">
+    <row r="23" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>40</v>
@@ -2568,7 +2574,7 @@
       </c>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="19.5" thickBot="1">
+    <row r="24" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>41</v>
@@ -2647,7 +2653,7 @@
       </c>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="19.5" thickBot="1">
+    <row r="25" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>42</v>
@@ -2726,7 +2732,7 @@
       </c>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="19.5" thickBot="1">
+    <row r="26" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -2805,7 +2811,7 @@
       </c>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="19.5" thickBot="1">
+    <row r="27" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -2884,7 +2890,7 @@
       </c>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="19.5" thickBot="1">
+    <row r="28" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
@@ -2963,7 +2969,7 @@
       </c>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="19.5" thickBot="1">
+    <row r="29" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
@@ -3042,7 +3048,7 @@
       </c>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="19.5" thickBot="1">
+    <row r="30" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
@@ -3121,7 +3127,7 @@
       </c>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="19.5" thickBot="1">
+    <row r="31" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>48</v>
@@ -3200,7 +3206,7 @@
       </c>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" thickBot="1">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3229,7 +3235,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" thickBot="1">
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3258,7 +3264,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" thickBot="1">
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3287,7 +3293,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1">
+    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
         <v>51</v>
@@ -3318,7 +3324,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" thickBot="1">
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3347,7 +3353,7 @@
       <c r="Z36" s="12"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="19.5" thickBot="1">
+    <row r="37" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
@@ -3424,7 +3430,7 @@
       </c>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="19.5" thickBot="1">
+    <row r="38" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>56</v>
@@ -3503,7 +3509,7 @@
       </c>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" ht="19.5" thickBot="1">
+    <row r="39" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>57</v>
@@ -3582,7 +3588,7 @@
       </c>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="19.5" thickBot="1">
+    <row r="40" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>52</v>
@@ -3661,7 +3667,7 @@
       </c>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="19.5" thickBot="1">
+    <row r="41" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>53</v>
@@ -3740,7 +3746,7 @@
       </c>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="19.5" thickBot="1">
+    <row r="42" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>54</v>
@@ -3819,7 +3825,7 @@
       </c>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="19.5" thickBot="1">
+    <row r="43" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>55</v>
@@ -3898,7 +3904,7 @@
       </c>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="19.5" thickBot="1">
+    <row r="44" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>58</v>
@@ -3977,7 +3983,7 @@
       </c>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="19.5" thickBot="1">
+    <row r="45" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>63</v>
@@ -4056,7 +4062,7 @@
       </c>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="19.5" thickBot="1">
+    <row r="46" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
         <v>64</v>
@@ -4135,7 +4141,7 @@
       </c>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="19.5" thickBot="1">
+    <row r="47" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
         <v>79</v>
@@ -4214,7 +4220,7 @@
       </c>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="19.5" thickBot="1">
+    <row r="48" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
         <v>80</v>
@@ -4293,7 +4299,7 @@
       </c>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="19.5" thickBot="1">
+    <row r="49" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="6" t="s">
         <v>65</v>
@@ -4372,7 +4378,7 @@
       </c>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="19.5" thickBot="1">
+    <row r="50" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
         <v>81</v>
@@ -4451,7 +4457,7 @@
       </c>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="19.5" thickBot="1">
+    <row r="51" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
         <v>66</v>
@@ -4530,7 +4536,7 @@
       </c>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="19.5" thickBot="1">
+    <row r="52" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
         <v>67</v>
@@ -4609,7 +4615,7 @@
       </c>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="19.5" thickBot="1">
+    <row r="53" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
@@ -4618,77 +4624,77 @@
         <v>50</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="R53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="W53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="X53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y53" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Z53" s="14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="19.5" thickBot="1">
+    <row r="54" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
@@ -4767,7 +4773,7 @@
       </c>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="19.5" thickBot="1">
+    <row r="55" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
@@ -4846,7 +4852,7 @@
       </c>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="19.5" thickBot="1">
+    <row r="56" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
@@ -4925,7 +4931,7 @@
       </c>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="19.5" thickBot="1">
+    <row r="57" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
@@ -5004,7 +5010,7 @@
       </c>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="19.5" thickBot="1">
+    <row r="58" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="6" t="s">
         <v>73</v>
@@ -5083,7 +5089,7 @@
       </c>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="19.5" thickBot="1">
+    <row r="59" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="6" t="s">
         <v>74</v>
@@ -5162,7 +5168,7 @@
       </c>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="19.5" thickBot="1">
+    <row r="60" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="6" t="s">
         <v>75</v>
@@ -5241,7 +5247,7 @@
       </c>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="19.5" thickBot="1">
+    <row r="61" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="6" t="s">
         <v>76</v>
@@ -5320,7 +5326,7 @@
       </c>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="19.5" thickBot="1">
+    <row r="62" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="6" t="s">
         <v>77</v>
@@ -5399,7 +5405,7 @@
       </c>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="19.5" thickBot="1">
+    <row r="63" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="6" t="s">
         <v>78</v>
@@ -5478,7 +5484,7 @@
       </c>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="19.5" thickBot="1">
+    <row r="64" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5507,7 +5513,7 @@
       <c r="Z64" s="4"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" thickBot="1">
+    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="12"/>
@@ -5536,7 +5542,7 @@
       <c r="Z65" s="5"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" thickBot="1">
+    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5565,7 +5571,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" thickBot="1">
+    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5594,7 +5600,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" thickBot="1">
+    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="16"/>
       <c r="C68" s="18"/>
@@ -5625,7 +5631,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" thickBot="1">
+    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="16"/>
       <c r="C69" s="18"/>
@@ -5656,7 +5662,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" thickBot="1">
+    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="16"/>
       <c r="C70" s="18"/>
@@ -5687,7 +5693,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" thickBot="1">
+    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="16"/>
       <c r="C71" s="18"/>
@@ -5718,7 +5724,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" thickBot="1">
+    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="16"/>
       <c r="C72" s="18"/>
@@ -5749,7 +5755,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" thickBot="1">
+    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="16"/>
       <c r="C73" s="18"/>
@@ -5780,7 +5786,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" thickBot="1">
+    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="20"/>
@@ -5811,7 +5817,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" thickBot="1">
+    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="20"/>
@@ -5842,7 +5848,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" thickBot="1">
+    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="20"/>
@@ -5873,7 +5879,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" thickBot="1">
+    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="20"/>
@@ -5904,7 +5910,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" thickBot="1">
+    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="20"/>
@@ -5935,7 +5941,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" thickBot="1">
+    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="20"/>
@@ -5966,7 +5972,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" thickBot="1">
+    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="20"/>
@@ -5997,7 +6003,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" thickBot="1">
+    <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="20"/>
@@ -6026,7 +6032,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" thickBot="1">
+    <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="20"/>
@@ -6057,7 +6063,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" thickBot="1">
+    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="20"/>
@@ -6086,7 +6092,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" thickBot="1">
+    <row r="84" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="20"/>
@@ -6117,7 +6123,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" thickBot="1">
+    <row r="85" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="20"/>
@@ -6148,7 +6154,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" thickBot="1">
+    <row r="86" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="20"/>
@@ -6179,7 +6185,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" thickBot="1">
+    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="20"/>
@@ -6210,7 +6216,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" thickBot="1">
+    <row r="88" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="20"/>
@@ -6241,7 +6247,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" thickBot="1">
+    <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="20"/>
@@ -6272,7 +6278,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" thickBot="1">
+    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="20"/>
@@ -6303,7 +6309,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" thickBot="1">
+    <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="20"/>
@@ -6334,7 +6340,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" thickBot="1">
+    <row r="92" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="20"/>
@@ -6365,7 +6371,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" thickBot="1">
+    <row r="93" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="20"/>
@@ -6396,7 +6402,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" thickBot="1">
+    <row r="94" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="20"/>
@@ -6427,7 +6433,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" thickBot="1">
+    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="20"/>
@@ -6456,7 +6462,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" thickBot="1">
+    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6489,12 +6495,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
@@ -6507,16 +6517,12 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/estados y funciones.xlsx
+++ b/estados y funciones.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosVSC\compilador2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935A7C4-EFE6-44BC-BE90-95E03DD890C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="110">
   <si>
     <t>tabla de estados</t>
   </si>
@@ -360,8 +354,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -507,6 +501,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -514,6 +569,135 @@
         <color rgb="FFCCCCCC"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -521,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -542,17 +726,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,8 +743,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -574,10 +758,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -640,7 +907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -692,7 +959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -886,27 +1153,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE51" sqref="AE51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:29" ht="19.5" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -935,9 +1202,9 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="1:29" ht="19.5" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -1009,20 +1276,20 @@
       <c r="Y3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="19.5" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1096,20 +1363,20 @@
       <c r="Y4" s="7">
         <v>26</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="41">
         <v>27</v>
       </c>
-      <c r="AA4" s="16">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA4" s="43">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="43">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="19.5" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
@@ -1183,20 +1450,20 @@
       <c r="Y5" s="7">
         <v>28</v>
       </c>
-      <c r="Z5" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z5" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="19.5" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -1270,20 +1537,20 @@
       <c r="Y6" s="7">
         <v>28</v>
       </c>
-      <c r="Z6" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC6" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z6" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="19.5" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -1357,20 +1624,20 @@
       <c r="Y7" s="7">
         <v>28</v>
       </c>
-      <c r="Z7" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z7" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC7" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="19.5" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -1444,20 +1711,20 @@
       <c r="Y8" s="7">
         <v>4</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="41">
         <v>4</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="14">
         <v>4</v>
       </c>
-      <c r="AB8" s="17">
+      <c r="AB8" s="44">
         <v>4</v>
       </c>
-      <c r="AC8" s="17">
+      <c r="AC8" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="19.5" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1531,20 +1798,20 @@
       <c r="Y9" s="7">
         <v>29</v>
       </c>
-      <c r="Z9" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z9" s="41">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="19.5" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1618,20 +1885,20 @@
       <c r="Y10" s="7">
         <v>29</v>
       </c>
-      <c r="Z10" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z10" s="41">
+        <v>29</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="19.5" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -1705,20 +1972,20 @@
       <c r="Y11" s="7">
         <v>29</v>
       </c>
-      <c r="Z11" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC11" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z11" s="41">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="19.5" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -1792,20 +2059,20 @@
       <c r="Y12" s="7">
         <v>28</v>
       </c>
-      <c r="Z12" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z12" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="19.5" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1879,20 +2146,20 @@
       <c r="Y13" s="7">
         <v>9</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="41">
         <v>9</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="14">
         <v>9</v>
       </c>
-      <c r="AB13" s="17">
+      <c r="AB13" s="44">
         <v>9</v>
       </c>
-      <c r="AC13" s="17">
+      <c r="AC13" s="39">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="19.5" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1966,20 +2233,20 @@
       <c r="Y14" s="7">
         <v>9</v>
       </c>
-      <c r="Z14" s="8">
+      <c r="Z14" s="41">
         <v>9</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="AA14" s="14">
         <v>9</v>
       </c>
-      <c r="AB14" s="17">
+      <c r="AB14" s="44">
         <v>9</v>
       </c>
-      <c r="AC14" s="17">
+      <c r="AC14" s="39">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" ht="19.5" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>12</v>
@@ -2053,20 +2320,20 @@
       <c r="Y15" s="7">
         <v>29</v>
       </c>
-      <c r="Z15" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z15" s="41">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC15" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="19.5" thickBot="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -2140,20 +2407,20 @@
       <c r="Y16" s="7">
         <v>29</v>
       </c>
-      <c r="Z16" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z16" s="41">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC16" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="19.5" thickBot="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>14</v>
@@ -2227,20 +2494,20 @@
       <c r="Y17" s="7">
         <v>29</v>
       </c>
-      <c r="Z17" s="7">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z17" s="41">
+        <v>29</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB17" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC17" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="19.5" thickBot="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>15</v>
@@ -2314,20 +2581,20 @@
       <c r="Y18" s="7">
         <v>28</v>
       </c>
-      <c r="Z18" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z18" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC18" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="19.5" thickBot="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>16</v>
@@ -2401,20 +2668,20 @@
       <c r="Y19" s="7">
         <v>-1</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="41">
         <v>32</v>
       </c>
-      <c r="AA19" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC19" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA19" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC19" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="19.5" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>17</v>
@@ -2488,20 +2755,20 @@
       <c r="Y20" s="7">
         <v>28</v>
       </c>
-      <c r="Z20" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z20" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC20" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="19.5" thickBot="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>38</v>
@@ -2575,20 +2842,20 @@
       <c r="Y21" s="7">
         <v>28</v>
       </c>
-      <c r="Z21" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA21" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB21" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC21" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z21" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB21" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="19.5" thickBot="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>39</v>
@@ -2662,20 +2929,20 @@
       <c r="Y22" s="7">
         <v>28</v>
       </c>
-      <c r="Z22" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC22" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z22" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB22" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC22" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="19.5" thickBot="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>40</v>
@@ -2749,20 +3016,20 @@
       <c r="Y23" s="7">
         <v>28</v>
       </c>
-      <c r="Z23" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC23" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z23" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB23" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC23" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="19.5" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>41</v>
@@ -2836,20 +3103,20 @@
       <c r="Y24" s="7">
         <v>28</v>
       </c>
-      <c r="Z24" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA24" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB24" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC24" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z24" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB24" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC24" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="19.5" thickBot="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>42</v>
@@ -2923,20 +3190,20 @@
       <c r="Y25" s="7">
         <v>28</v>
       </c>
-      <c r="Z25" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC25" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z25" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB25" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC25" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="19.5" thickBot="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -3010,20 +3277,20 @@
       <c r="Y26" s="7">
         <v>28</v>
       </c>
-      <c r="Z26" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z26" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC26" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="19.5" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>44</v>
@@ -3097,20 +3364,20 @@
       <c r="Y27" s="7">
         <v>28</v>
       </c>
-      <c r="Z27" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA27" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC27" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z27" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="19.5" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
@@ -3184,20 +3451,20 @@
       <c r="Y28" s="7">
         <v>28</v>
       </c>
-      <c r="Z28" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA28" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB28" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC28" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z28" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC28" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="19.5" thickBot="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
@@ -3271,20 +3538,20 @@
       <c r="Y29" s="7">
         <v>28</v>
       </c>
-      <c r="Z29" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA29" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB29" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC29" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z29" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC29" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="19.5" thickBot="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>47</v>
@@ -3358,136 +3625,138 @@
       <c r="Y30" s="7">
         <v>28</v>
       </c>
-      <c r="Z30" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA30" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB30" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC30" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z30" s="41">
+        <v>28</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="44">
+        <v>29</v>
+      </c>
+      <c r="AC30" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="19.5" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="7">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7">
-        <v>28</v>
-      </c>
-      <c r="E31" s="7">
-        <v>28</v>
-      </c>
-      <c r="F31" s="7">
-        <v>28</v>
-      </c>
-      <c r="G31" s="7">
-        <v>28</v>
-      </c>
-      <c r="H31" s="7">
-        <v>28</v>
-      </c>
-      <c r="I31" s="7">
-        <v>28</v>
-      </c>
-      <c r="J31" s="7">
-        <v>28</v>
-      </c>
-      <c r="K31" s="7">
-        <v>28</v>
-      </c>
-      <c r="L31" s="7">
-        <v>28</v>
-      </c>
-      <c r="M31" s="7">
-        <v>28</v>
-      </c>
-      <c r="N31" s="7">
-        <v>28</v>
-      </c>
-      <c r="O31" s="7">
-        <v>28</v>
-      </c>
-      <c r="P31" s="7">
-        <v>28</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>28</v>
-      </c>
-      <c r="R31" s="7">
-        <v>28</v>
-      </c>
-      <c r="S31" s="7">
-        <v>28</v>
-      </c>
-      <c r="T31" s="7">
-        <v>28</v>
-      </c>
-      <c r="U31" s="7">
-        <v>28</v>
-      </c>
-      <c r="V31" s="7">
-        <v>28</v>
-      </c>
-      <c r="W31" s="7">
-        <v>28</v>
-      </c>
-      <c r="X31" s="7">
-        <v>28</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>28</v>
-      </c>
-      <c r="Z31" s="7">
-        <v>28</v>
-      </c>
-      <c r="AA31" s="17">
-        <v>29</v>
-      </c>
-      <c r="AB31" s="17">
-        <v>29</v>
-      </c>
-      <c r="AC31" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="35">
+        <v>28</v>
+      </c>
+      <c r="D31" s="35">
+        <v>28</v>
+      </c>
+      <c r="E31" s="35">
+        <v>28</v>
+      </c>
+      <c r="F31" s="35">
+        <v>28</v>
+      </c>
+      <c r="G31" s="35">
+        <v>28</v>
+      </c>
+      <c r="H31" s="35">
+        <v>28</v>
+      </c>
+      <c r="I31" s="35">
+        <v>28</v>
+      </c>
+      <c r="J31" s="35">
+        <v>28</v>
+      </c>
+      <c r="K31" s="35">
+        <v>28</v>
+      </c>
+      <c r="L31" s="35">
+        <v>28</v>
+      </c>
+      <c r="M31" s="35">
+        <v>28</v>
+      </c>
+      <c r="N31" s="35">
+        <v>28</v>
+      </c>
+      <c r="O31" s="35">
+        <v>28</v>
+      </c>
+      <c r="P31" s="35">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="35">
+        <v>28</v>
+      </c>
+      <c r="R31" s="35">
+        <v>28</v>
+      </c>
+      <c r="S31" s="35">
+        <v>28</v>
+      </c>
+      <c r="T31" s="35">
+        <v>28</v>
+      </c>
+      <c r="U31" s="35">
+        <v>28</v>
+      </c>
+      <c r="V31" s="35">
+        <v>28</v>
+      </c>
+      <c r="W31" s="35">
+        <v>28</v>
+      </c>
+      <c r="X31" s="35">
+        <v>28</v>
+      </c>
+      <c r="Y31" s="35">
+        <v>28</v>
+      </c>
+      <c r="Z31" s="42">
+        <v>28</v>
+      </c>
+      <c r="AA31" s="47">
+        <v>29</v>
+      </c>
+      <c r="AB31" s="45">
+        <v>29</v>
+      </c>
+      <c r="AC31" s="40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" thickBot="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3516,7 +3785,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="15.75" thickBot="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3545,9 +3814,9 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="15.75" thickBot="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="1"/>
@@ -3576,36 +3845,36 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" thickBot="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="22"/>
+    </row>
+    <row r="37" spans="1:29" ht="19.5" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
@@ -3677,2161 +3946,2383 @@
       <c r="Y37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z37" s="5" t="s">
+      <c r="Z37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA37" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB37" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC37" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="19.5" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="E38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M38" s="11" t="s">
+      <c r="L38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="S38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="V38" s="11" t="s">
+      <c r="V38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W38" s="11" t="s">
+      <c r="W38" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="X38" s="11" t="s">
+      <c r="X38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Y38" s="11" t="s">
+      <c r="Y38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Z38" s="12" t="s">
+      <c r="Z38" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC38" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="19.5" thickBot="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z39" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z39" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA39" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="19.5" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z40" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z40" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA40" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB40" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC40" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="19.5" thickBot="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z41" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z41" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA41" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC41" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="19.5" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="11" t="s">
+      <c r="G42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="11" t="s">
+      <c r="S42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="U42" s="11" t="s">
+      <c r="U42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V42" s="11" t="s">
+      <c r="V42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="W42" s="11" t="s">
+      <c r="W42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="X42" s="11" t="s">
+      <c r="X42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Y42" s="11" t="s">
+      <c r="Y42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Z42" s="12" t="s">
+      <c r="Z42" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA42" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB42" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC42" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="19.5" thickBot="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z43" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z43" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="19.5" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z44" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z44" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA44" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB44" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC44" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="19.5" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z45" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y45" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z45" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA45" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB45" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC45" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="19.5" thickBot="1">
       <c r="A46" s="4"/>
       <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L46" s="11" t="s">
+      <c r="C46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="M46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z46" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z46" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA46" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB46" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC46" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="19.5" thickBot="1">
       <c r="A47" s="4"/>
       <c r="B47" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L47" s="11" t="s">
+      <c r="C47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z47" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA47" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB47" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC47" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="19.5" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L48" s="11" t="s">
+      <c r="K48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="S48" s="11" t="s">
+      <c r="S48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="U48" s="11" t="s">
+      <c r="U48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="V48" s="11" t="s">
+      <c r="V48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="W48" s="11" t="s">
+      <c r="W48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="X48" s="11" t="s">
+      <c r="X48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Y48" s="11" t="s">
+      <c r="Y48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Z48" s="12" t="s">
+      <c r="Z48" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA48" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB48" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC48" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="19.5" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M49" s="11" t="s">
+      <c r="C49" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z49" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z49" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA49" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB49" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="19.5" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z50" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z50" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA50" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB50" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC50" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="19.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y51" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z51" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y51" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z51" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA51" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB51" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="19.5" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="U52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y52" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z52" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z52" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA52" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB52" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC52" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="19.5" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z53" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z53" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA53" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB53" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="19.5" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z54" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA54" s="1"/>
-    </row>
-    <row r="55" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z54" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA54" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB54" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC54" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="19.5" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z55" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA55" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC55" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="19.5" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z56" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA56" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB56" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC56" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="19.5" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y57" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z57" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z57" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA57" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB57" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC57" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="19.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y58" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z58" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y58" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z58" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA58" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB58" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="19.5" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y59" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z59" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA59" s="1"/>
-    </row>
-    <row r="60" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z59" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA59" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB59" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="19.5" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y60" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z60" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z60" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA60" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB60" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC60" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="19.5" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y61" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z61" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z61" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA61" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB61" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC61" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="19.5" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y62" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z62" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z62" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA62" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB62" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC62" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="19.5" thickBot="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="U63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z63" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="S63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="T63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="V63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="W63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z63" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA63" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB63" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC63" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="19.5" thickBot="1">
+      <c r="A64" s="15"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="31"/>
+      <c r="U64" s="31"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="29"/>
+    </row>
+    <row r="65" spans="1:30" ht="19.5" thickBot="1">
+      <c r="A65" s="15"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="29"/>
+    </row>
+    <row r="66" spans="1:30" ht="15.75" thickBot="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+    </row>
+    <row r="67" spans="1:30" ht="15.75" thickBot="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5852,17 +6343,17 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" ht="15.75" thickBot="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="18"/>
       <c r="D68" s="19"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H68" s="13"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5883,17 +6374,17 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="15.75" thickBot="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="18"/>
       <c r="D69" s="19"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5914,17 +6405,17 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" ht="15.75" thickBot="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="18"/>
       <c r="D70" s="19"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H70" s="13"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5945,17 +6436,17 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="15.75" thickBot="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="18"/>
       <c r="D71" s="19"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H71" s="13"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5976,17 +6467,17 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="15.75" thickBot="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="18"/>
       <c r="D72" s="19"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="13"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -6007,17 +6498,17 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="15.75" thickBot="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="18"/>
       <c r="D73" s="19"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H73" s="13"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -6038,17 +6529,17 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="15.75" thickBot="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H74" s="13"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -6069,17 +6560,17 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" ht="15.75" thickBot="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="17"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -6100,17 +6591,17 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="15.75" thickBot="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -6131,17 +6622,17 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" ht="15.75" thickBot="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H77" s="13"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -6162,17 +6653,17 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" ht="15.75" thickBot="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="13"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -6193,17 +6684,17 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" ht="15.75" thickBot="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -6224,17 +6715,17 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="15.75" thickBot="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -6255,11 +6746,11 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="15.75" thickBot="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -6284,17 +6775,17 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="15.75" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -6315,11 +6806,11 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15.75" thickBot="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -6344,17 +6835,17 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="15.75" thickBot="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="13" t="s">
+      <c r="G84" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H84" s="13"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -6375,17 +6866,17 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="15.75" thickBot="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="17"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H85" s="13"/>
+      <c r="H85" s="11"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -6406,17 +6897,17 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="15.75" thickBot="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H86" s="13"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -6437,17 +6928,17 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="15.75" thickBot="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="17"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="15" t="s">
+      <c r="G87" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H87" s="13"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -6468,17 +6959,17 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="15.75" thickBot="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="15" t="s">
+      <c r="G88" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H88" s="13"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6499,17 +6990,17 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="15.75" thickBot="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H89" s="13"/>
+      <c r="H89" s="11"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -6530,17 +7021,17 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15.75" thickBot="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="15" t="s">
+      <c r="G90" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H90" s="13"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -6561,17 +7052,17 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="15.75" thickBot="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="11"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -6592,17 +7083,17 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="15.75" thickBot="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="21"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="15" t="s">
+      <c r="G92" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H92" s="13"/>
+      <c r="H92" s="11"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -6623,17 +7114,17 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" ht="15.75" thickBot="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="21"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="13" t="s">
+      <c r="G93" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H93" s="13"/>
+      <c r="H93" s="11"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -6654,17 +7145,17 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="15.75" thickBot="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="21"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H94" s="13"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -6685,11 +7176,11 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="15.75" thickBot="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -6714,17 +7205,17 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15.75" thickBot="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="14"/>
+      <c r="G96" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="12"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -6747,16 +7238,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C75:D75"/>
@@ -6769,12 +7256,16 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/estados y funciones.xlsx
+++ b/estados y funciones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="114">
   <si>
     <t>tabla de estados</t>
   </si>
@@ -349,13 +349,25 @@
   </si>
   <si>
     <t>saltolinea</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>f14and</t>
+  </si>
+  <si>
+    <t>f15and</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +403,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -401,7 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -547,17 +552,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -689,23 +683,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,23 +759,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,93 +848,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD96"/>
+  <dimension ref="A1:AD98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE51" sqref="AE51"/>
+    <sheetView tabSelected="1" topLeftCell="E47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J25" activeCellId="1" sqref="AI9 J24:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1202,7 +1237,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="22"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" spans="1:29" ht="19.5" thickBot="1">
       <c r="A3" s="4"/>
@@ -1276,16 +1311,16 @@
       <c r="Y3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="46" t="s">
+      <c r="AA3" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="53" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1363,16 +1398,16 @@
       <c r="Y4" s="7">
         <v>26</v>
       </c>
-      <c r="Z4" s="41">
+      <c r="Z4" s="32">
         <v>27</v>
       </c>
-      <c r="AA4" s="43">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="43">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="38">
+      <c r="AA4" s="12">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="51">
         <v>28</v>
       </c>
     </row>
@@ -1450,16 +1485,16 @@
       <c r="Y5" s="7">
         <v>28</v>
       </c>
-      <c r="Z5" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB5" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC5" s="39">
+      <c r="Z5" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC5" s="30">
         <v>29</v>
       </c>
     </row>
@@ -1537,16 +1572,16 @@
       <c r="Y6" s="7">
         <v>28</v>
       </c>
-      <c r="Z6" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB6" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC6" s="39">
+      <c r="Z6" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="30">
         <v>29</v>
       </c>
     </row>
@@ -1624,16 +1659,16 @@
       <c r="Y7" s="7">
         <v>28</v>
       </c>
-      <c r="Z7" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="39">
+      <c r="Z7" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC7" s="30">
         <v>29</v>
       </c>
     </row>
@@ -1711,16 +1746,16 @@
       <c r="Y8" s="7">
         <v>4</v>
       </c>
-      <c r="Z8" s="41">
+      <c r="Z8" s="32">
         <v>4</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AA8" s="12">
         <v>4</v>
       </c>
-      <c r="AB8" s="44">
+      <c r="AB8" s="34">
         <v>4</v>
       </c>
-      <c r="AC8" s="39">
+      <c r="AC8" s="30">
         <v>4</v>
       </c>
     </row>
@@ -1798,16 +1833,16 @@
       <c r="Y9" s="7">
         <v>29</v>
       </c>
-      <c r="Z9" s="41">
-        <v>29</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC9" s="39">
+      <c r="Z9" s="32">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="30">
         <v>29</v>
       </c>
     </row>
@@ -1885,16 +1920,16 @@
       <c r="Y10" s="7">
         <v>29</v>
       </c>
-      <c r="Z10" s="41">
-        <v>29</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB10" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC10" s="39">
+      <c r="Z10" s="32">
+        <v>29</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="30">
         <v>29</v>
       </c>
     </row>
@@ -1972,16 +2007,16 @@
       <c r="Y11" s="7">
         <v>29</v>
       </c>
-      <c r="Z11" s="41">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC11" s="39">
+      <c r="Z11" s="32">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB11" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2059,16 +2094,16 @@
       <c r="Y12" s="7">
         <v>28</v>
       </c>
-      <c r="Z12" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="39">
+      <c r="Z12" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB12" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2146,16 +2181,16 @@
       <c r="Y13" s="7">
         <v>9</v>
       </c>
-      <c r="Z13" s="41">
+      <c r="Z13" s="32">
         <v>9</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="12">
         <v>9</v>
       </c>
-      <c r="AB13" s="44">
+      <c r="AB13" s="34">
         <v>9</v>
       </c>
-      <c r="AC13" s="39">
+      <c r="AC13" s="30">
         <v>9</v>
       </c>
     </row>
@@ -2233,16 +2268,16 @@
       <c r="Y14" s="7">
         <v>9</v>
       </c>
-      <c r="Z14" s="41">
+      <c r="Z14" s="32">
         <v>9</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="12">
         <v>9</v>
       </c>
-      <c r="AB14" s="44">
+      <c r="AB14" s="34">
         <v>9</v>
       </c>
-      <c r="AC14" s="39">
+      <c r="AC14" s="30">
         <v>9</v>
       </c>
     </row>
@@ -2320,16 +2355,16 @@
       <c r="Y15" s="7">
         <v>29</v>
       </c>
-      <c r="Z15" s="41">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC15" s="39">
+      <c r="Z15" s="32">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB15" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC15" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2407,16 +2442,16 @@
       <c r="Y16" s="7">
         <v>29</v>
       </c>
-      <c r="Z16" s="41">
-        <v>29</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB16" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC16" s="39">
+      <c r="Z16" s="32">
+        <v>29</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC16" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2494,16 +2529,16 @@
       <c r="Y17" s="7">
         <v>29</v>
       </c>
-      <c r="Z17" s="41">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB17" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC17" s="39">
+      <c r="Z17" s="32">
+        <v>29</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB17" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC17" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2581,16 +2616,16 @@
       <c r="Y18" s="7">
         <v>28</v>
       </c>
-      <c r="Z18" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC18" s="39">
+      <c r="Z18" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC18" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2668,16 +2703,16 @@
       <c r="Y19" s="7">
         <v>-1</v>
       </c>
-      <c r="Z19" s="41">
+      <c r="Z19" s="32">
         <v>32</v>
       </c>
-      <c r="AA19" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC19" s="39">
+      <c r="AA19" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC19" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2755,16 +2790,16 @@
       <c r="Y20" s="7">
         <v>28</v>
       </c>
-      <c r="Z20" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC20" s="39">
+      <c r="Z20" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC20" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2842,16 +2877,16 @@
       <c r="Y21" s="7">
         <v>28</v>
       </c>
-      <c r="Z21" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA21" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB21" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC21" s="39">
+      <c r="Z21" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB21" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="30">
         <v>29</v>
       </c>
     </row>
@@ -2929,16 +2964,16 @@
       <c r="Y22" s="7">
         <v>28</v>
       </c>
-      <c r="Z22" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB22" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC22" s="39">
+      <c r="Z22" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB22" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC22" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3016,16 +3051,16 @@
       <c r="Y23" s="7">
         <v>28</v>
       </c>
-      <c r="Z23" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC23" s="39">
+      <c r="Z23" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB23" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC23" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3103,16 +3138,16 @@
       <c r="Y24" s="7">
         <v>28</v>
       </c>
-      <c r="Z24" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA24" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB24" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC24" s="39">
+      <c r="Z24" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB24" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC24" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3190,16 +3225,16 @@
       <c r="Y25" s="7">
         <v>28</v>
       </c>
-      <c r="Z25" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB25" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC25" s="39">
+      <c r="Z25" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB25" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC25" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3277,16 +3312,16 @@
       <c r="Y26" s="7">
         <v>28</v>
       </c>
-      <c r="Z26" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="39">
+      <c r="Z26" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC26" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3364,16 +3399,16 @@
       <c r="Y27" s="7">
         <v>28</v>
       </c>
-      <c r="Z27" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA27" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC27" s="39">
+      <c r="Z27" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3451,16 +3486,16 @@
       <c r="Y28" s="7">
         <v>28</v>
       </c>
-      <c r="Z28" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA28" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB28" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC28" s="39">
+      <c r="Z28" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC28" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3538,16 +3573,16 @@
       <c r="Y29" s="7">
         <v>28</v>
       </c>
-      <c r="Z29" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB29" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC29" s="39">
+      <c r="Z29" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC29" s="30">
         <v>29</v>
       </c>
     </row>
@@ -3625,136 +3660,136 @@
       <c r="Y30" s="7">
         <v>28</v>
       </c>
-      <c r="Z30" s="41">
-        <v>28</v>
-      </c>
-      <c r="AA30" s="14">
-        <v>29</v>
-      </c>
-      <c r="AB30" s="44">
-        <v>29</v>
-      </c>
-      <c r="AC30" s="39">
+      <c r="Z30" s="32">
+        <v>28</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="34">
+        <v>29</v>
+      </c>
+      <c r="AC30" s="30">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="19.5" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="35">
-        <v>28</v>
-      </c>
-      <c r="D31" s="35">
-        <v>28</v>
-      </c>
-      <c r="E31" s="35">
-        <v>28</v>
-      </c>
-      <c r="F31" s="35">
-        <v>28</v>
-      </c>
-      <c r="G31" s="35">
-        <v>28</v>
-      </c>
-      <c r="H31" s="35">
-        <v>28</v>
-      </c>
-      <c r="I31" s="35">
-        <v>28</v>
-      </c>
-      <c r="J31" s="35">
-        <v>28</v>
-      </c>
-      <c r="K31" s="35">
-        <v>28</v>
-      </c>
-      <c r="L31" s="35">
-        <v>28</v>
-      </c>
-      <c r="M31" s="35">
-        <v>28</v>
-      </c>
-      <c r="N31" s="35">
-        <v>28</v>
-      </c>
-      <c r="O31" s="35">
-        <v>28</v>
-      </c>
-      <c r="P31" s="35">
-        <v>28</v>
-      </c>
-      <c r="Q31" s="35">
-        <v>28</v>
-      </c>
-      <c r="R31" s="35">
-        <v>28</v>
-      </c>
-      <c r="S31" s="35">
-        <v>28</v>
-      </c>
-      <c r="T31" s="35">
-        <v>28</v>
-      </c>
-      <c r="U31" s="35">
-        <v>28</v>
-      </c>
-      <c r="V31" s="35">
-        <v>28</v>
-      </c>
-      <c r="W31" s="35">
-        <v>28</v>
-      </c>
-      <c r="X31" s="35">
-        <v>28</v>
-      </c>
-      <c r="Y31" s="35">
-        <v>28</v>
-      </c>
-      <c r="Z31" s="42">
-        <v>28</v>
-      </c>
-      <c r="AA31" s="47">
-        <v>29</v>
-      </c>
-      <c r="AB31" s="45">
-        <v>29</v>
-      </c>
-      <c r="AC31" s="40">
+      <c r="C31" s="27">
+        <v>28</v>
+      </c>
+      <c r="D31" s="27">
+        <v>28</v>
+      </c>
+      <c r="E31" s="27">
+        <v>28</v>
+      </c>
+      <c r="F31" s="27">
+        <v>28</v>
+      </c>
+      <c r="G31" s="27">
+        <v>28</v>
+      </c>
+      <c r="H31" s="27">
+        <v>28</v>
+      </c>
+      <c r="I31" s="27">
+        <v>28</v>
+      </c>
+      <c r="J31" s="27">
+        <v>28</v>
+      </c>
+      <c r="K31" s="27">
+        <v>28</v>
+      </c>
+      <c r="L31" s="27">
+        <v>28</v>
+      </c>
+      <c r="M31" s="27">
+        <v>28</v>
+      </c>
+      <c r="N31" s="27">
+        <v>28</v>
+      </c>
+      <c r="O31" s="27">
+        <v>28</v>
+      </c>
+      <c r="P31" s="27">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>28</v>
+      </c>
+      <c r="R31" s="27">
+        <v>28</v>
+      </c>
+      <c r="S31" s="27">
+        <v>28</v>
+      </c>
+      <c r="T31" s="27">
+        <v>28</v>
+      </c>
+      <c r="U31" s="27">
+        <v>28</v>
+      </c>
+      <c r="V31" s="27">
+        <v>28</v>
+      </c>
+      <c r="W31" s="27">
+        <v>28</v>
+      </c>
+      <c r="X31" s="27">
+        <v>28</v>
+      </c>
+      <c r="Y31" s="27">
+        <v>28</v>
+      </c>
+      <c r="Z31" s="33">
+        <v>28</v>
+      </c>
+      <c r="AA31" s="36">
+        <v>29</v>
+      </c>
+      <c r="AB31" s="35">
+        <v>29</v>
+      </c>
+      <c r="AC31" s="31">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="15.75" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
     </row>
     <row r="33" spans="1:29" ht="15.75" thickBot="1">
       <c r="A33" s="1"/>
@@ -3872,7 +3907,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
-      <c r="AA36" s="22"/>
+      <c r="AA36" s="16"/>
     </row>
     <row r="37" spans="1:29" ht="19.5" thickBot="1">
       <c r="A37" s="4"/>
@@ -3946,22 +3981,22 @@
       <c r="Y37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z37" s="21" t="s">
+      <c r="Z37" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA37" s="46" t="s">
+      <c r="AA37" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="AB37" s="33" t="s">
+      <c r="AB37" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="AC37" s="33" t="s">
+      <c r="AC37" s="50" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="19.5" thickBot="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="47" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4033,22 +4068,22 @@
       <c r="Y38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Z38" s="48" t="s">
+      <c r="Z38" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AA38" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB38" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC38" s="24" t="s">
+      <c r="AA38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC38" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="19.5" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="47" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -4120,22 +4155,22 @@
       <c r="Y39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z39" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA39" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB39" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC39" s="24" t="s">
+      <c r="Z39" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA39" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="19.5" thickBot="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="47" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -4207,22 +4242,22 @@
       <c r="Y40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z40" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA40" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB40" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC40" s="24" t="s">
+      <c r="Z40" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA40" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC40" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="19.5" thickBot="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -4294,22 +4329,22 @@
       <c r="Y41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z41" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA41" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB41" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC41" s="24" t="s">
+      <c r="Z41" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA41" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC41" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="19.5" thickBot="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -4381,22 +4416,22 @@
       <c r="Y42" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Z42" s="48" t="s">
+      <c r="Z42" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AA42" s="28" t="s">
+      <c r="AA42" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AB42" s="20" t="s">
+      <c r="AB42" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AC42" s="24" t="s">
+      <c r="AC42" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="19.5" thickBot="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -4468,22 +4503,22 @@
       <c r="Y43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Z43" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA43" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB43" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC43" s="24" t="s">
+      <c r="Z43" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA43" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="19.5" thickBot="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="47" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -4555,16 +4590,16 @@
       <c r="Y44" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Z44" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA44" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB44" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC44" s="24" t="s">
+      <c r="Z44" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA44" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC44" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4642,16 +4677,16 @@
       <c r="Y45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Z45" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA45" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB45" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC45" s="24" t="s">
+      <c r="Z45" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC45" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4729,16 +4764,16 @@
       <c r="Y46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z46" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA46" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB46" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC46" s="24" t="s">
+      <c r="Z46" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA46" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC46" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4816,16 +4851,16 @@
       <c r="Y47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z47" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA47" s="28" t="s">
+      <c r="Z47" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AB47" s="20" t="s">
+      <c r="AB47" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AC47" s="24" t="s">
+      <c r="AC47" s="17" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4903,20 +4938,20 @@
       <c r="Y48" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Z48" s="48" t="s">
+      <c r="Z48" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AA48" s="28" t="s">
+      <c r="AA48" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AB48" s="20" t="s">
+      <c r="AB48" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AC48" s="24" t="s">
+      <c r="AC48" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="19.5" thickBot="1">
+    <row r="49" spans="1:29" ht="19.5" thickBot="1">
       <c r="A49" s="4"/>
       <c r="B49" s="6" t="s">
         <v>65</v>
@@ -4990,20 +5025,20 @@
       <c r="Y49" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Z49" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA49" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB49" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC49" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z49" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA49" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB49" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="19.5" thickBot="1">
       <c r="A50" s="4"/>
       <c r="B50" s="6" t="s">
         <v>81</v>
@@ -5077,20 +5112,20 @@
       <c r="Y50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Z50" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA50" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB50" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC50" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z50" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA50" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB50" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC50" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="19.5" thickBot="1">
       <c r="A51" s="4"/>
       <c r="B51" s="6" t="s">
         <v>66</v>
@@ -5164,56 +5199,56 @@
       <c r="Y51" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Z51" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA51" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB51" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC51" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z51" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA51" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB51" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="19.5" thickBot="1">
       <c r="A52" s="4"/>
       <c r="B52" s="6" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>62</v>
@@ -5222,139 +5257,139 @@
         <v>50</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="U52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="V52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="W52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="X52" s="10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y52" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z52" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA52" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB52" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC52" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="19.5" thickBot="1">
+        <v>50</v>
+      </c>
+      <c r="Z52" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA52" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC52" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="19.5" thickBot="1">
       <c r="A53" s="4"/>
       <c r="B53" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>50</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="R53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="T53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="U53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="V53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="W53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="X53" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Y53" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z53" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA53" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB53" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC53" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="19.5" thickBot="1">
+        <v>62</v>
+      </c>
+      <c r="Z53" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA53" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB53" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="19.5" thickBot="1">
       <c r="A54" s="4"/>
       <c r="B54" s="6" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>50</v>
@@ -5393,7 +5428,7 @@
         <v>50</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>50</v>
@@ -5425,23 +5460,23 @@
       <c r="Y54" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z54" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA54" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB54" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC54" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z54" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB54" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC54" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="19.5" thickBot="1">
       <c r="A55" s="4"/>
       <c r="B55" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>50</v>
@@ -5512,23 +5547,23 @@
       <c r="Y55" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z55" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA55" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB55" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC55" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z55" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA55" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB55" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC55" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="19.5" thickBot="1">
       <c r="A56" s="4"/>
       <c r="B56" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>50</v>
@@ -5599,23 +5634,23 @@
       <c r="Y56" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z56" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA56" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB56" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC56" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z56" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA56" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB56" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC56" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="19.5" thickBot="1">
       <c r="A57" s="4"/>
       <c r="B57" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>50</v>
@@ -5686,23 +5721,23 @@
       <c r="Y57" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z57" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA57" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB57" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC57" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z57" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA57" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB57" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC57" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="19.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>50</v>
@@ -5773,23 +5808,23 @@
       <c r="Y58" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z58" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA58" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB58" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC58" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z58" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA58" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB58" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="19.5" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>50</v>
@@ -5860,23 +5895,23 @@
       <c r="Y59" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z59" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA59" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB59" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC59" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z59" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA59" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB59" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="19.5" thickBot="1">
       <c r="A60" s="4"/>
       <c r="B60" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>50</v>
@@ -5947,23 +5982,23 @@
       <c r="Y60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z60" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA60" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB60" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC60" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z60" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA60" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB60" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC60" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="19.5" thickBot="1">
       <c r="A61" s="4"/>
       <c r="B61" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>50</v>
@@ -6034,357 +6069,469 @@
       <c r="Y61" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Z61" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA61" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB61" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC61" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="19.5" thickBot="1">
+      <c r="Z61" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA61" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB61" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC61" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="19.5" thickBot="1">
       <c r="A62" s="4"/>
       <c r="B62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z62" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA62" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB62" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC62" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="19.5" thickBot="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y63" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z63" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA63" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB63" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC63" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="19.5" thickBot="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="T62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="U62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="X62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z62" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA62" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB62" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC62" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="19.5" thickBot="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="25" t="s">
+      <c r="C64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z64" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA64" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB64" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC64" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="19.5" thickBot="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="M63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="O63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="P63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="R63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="S63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="T63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="U63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="V63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="W63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="X63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y63" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z63" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA63" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB63" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC63" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="19.5" thickBot="1">
-      <c r="A64" s="15"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="31"/>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="29"/>
-    </row>
-    <row r="65" spans="1:30" ht="19.5" thickBot="1">
-      <c r="A65" s="15"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="20"/>
-      <c r="AC65" s="20"/>
-      <c r="AD65" s="29"/>
-    </row>
-    <row r="66" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-    </row>
-    <row r="67" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
+      <c r="C65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="V65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="W65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="X65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y65" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z65" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA65" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB65" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC65" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="19.5" thickBot="1">
+      <c r="A66" s="13"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="22"/>
+    </row>
+    <row r="67" spans="1:30" ht="19.5" thickBot="1">
+      <c r="A67" s="13"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="22"/>
     </row>
     <row r="68" spans="1:30" ht="15.75" thickBot="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
     </row>
     <row r="69" spans="1:30" ht="15.75" thickBot="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="11"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -6407,15 +6554,15 @@
     </row>
     <row r="70" spans="1:30" ht="15.75" thickBot="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70" s="11"/>
+      <c r="G70" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" s="44"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -6438,15 +6585,15 @@
     </row>
     <row r="71" spans="1:30" ht="15.75" thickBot="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="11"/>
+      <c r="G71" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="44"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -6469,15 +6616,15 @@
     </row>
     <row r="72" spans="1:30" ht="15.75" thickBot="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" s="11"/>
+      <c r="G72" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" s="44"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -6500,15 +6647,15 @@
     </row>
     <row r="73" spans="1:30" ht="15.75" thickBot="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" s="11"/>
+      <c r="G73" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H73" s="44"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -6531,15 +6678,15 @@
     </row>
     <row r="74" spans="1:30" ht="15.75" thickBot="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H74" s="11"/>
+      <c r="G74" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H74" s="44"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -6562,15 +6709,15 @@
     </row>
     <row r="75" spans="1:30" ht="15.75" thickBot="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" s="11"/>
+      <c r="G75" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="44"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -6594,14 +6741,14 @@
     <row r="76" spans="1:30" ht="15.75" thickBot="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="11"/>
+      <c r="G76" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="44"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -6625,14 +6772,14 @@
     <row r="77" spans="1:30" ht="15.75" thickBot="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="11"/>
+      <c r="G77" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="44"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -6656,14 +6803,14 @@
     <row r="78" spans="1:30" ht="15.75" thickBot="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="11"/>
+      <c r="G78" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="44"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -6687,14 +6834,14 @@
     <row r="79" spans="1:30" ht="15.75" thickBot="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H79" s="11"/>
+      <c r="G79" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="44"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -6718,14 +6865,14 @@
     <row r="80" spans="1:30" ht="15.75" thickBot="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="11"/>
+      <c r="G80" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H80" s="44"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -6749,12 +6896,14 @@
     <row r="81" spans="1:27" ht="15.75" thickBot="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="G81" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="H81" s="44"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -6778,14 +6927,14 @@
     <row r="82" spans="1:27" ht="15.75" thickBot="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" s="11"/>
+      <c r="G82" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="H82" s="44"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -6809,12 +6958,14 @@
     <row r="83" spans="1:27" ht="15.75" thickBot="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="G83" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" s="44"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -6838,14 +6989,14 @@
     <row r="84" spans="1:27" ht="15.75" thickBot="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H84" s="11"/>
+      <c r="G84" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H84" s="44"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -6869,14 +7020,14 @@
     <row r="85" spans="1:27" ht="15.75" thickBot="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H85" s="11"/>
+      <c r="G85" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H85" s="44"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -6900,14 +7051,14 @@
     <row r="86" spans="1:27" ht="15.75" thickBot="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H86" s="11"/>
+      <c r="G86" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="H86" s="44"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -6931,14 +7082,14 @@
     <row r="87" spans="1:27" ht="15.75" thickBot="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H87" s="11"/>
+      <c r="G87" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H87" s="44"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -6962,14 +7113,14 @@
     <row r="88" spans="1:27" ht="15.75" thickBot="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" s="11"/>
+      <c r="G88" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" s="44"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6993,14 +7144,14 @@
     <row r="89" spans="1:27" ht="15.75" thickBot="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H89" s="11"/>
+      <c r="G89" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" s="44"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -7024,14 +7175,14 @@
     <row r="90" spans="1:27" ht="15.75" thickBot="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H90" s="11"/>
+      <c r="G90" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" s="44"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -7055,14 +7206,14 @@
     <row r="91" spans="1:27" ht="15.75" thickBot="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H91" s="11"/>
+      <c r="G91" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H91" s="44"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -7086,14 +7237,14 @@
     <row r="92" spans="1:27" ht="15.75" thickBot="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H92" s="11"/>
+      <c r="G92" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H92" s="44"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -7117,14 +7268,14 @@
     <row r="93" spans="1:27" ht="15.75" thickBot="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H93" s="11"/>
+      <c r="G93" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H93" s="44"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -7148,14 +7299,14 @@
     <row r="94" spans="1:27" ht="15.75" thickBot="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H94" s="11"/>
+      <c r="G94" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="44"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -7179,12 +7330,14 @@
     <row r="95" spans="1:27" ht="15.75" thickBot="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="G95" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H95" s="44"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -7208,14 +7361,14 @@
     <row r="96" spans="1:27" ht="15.75" thickBot="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="12"/>
+      <c r="G96" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H96" s="44"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -7236,17 +7389,79 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
+    <row r="97" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="46"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C87:D87"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="C78:D78"/>
@@ -7256,16 +7471,14 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
